--- a/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
+++ b/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D83EF-7492-4787-9134-D7B7E12057BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5563A18-7E99-4F24-826E-B001F1F447BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>Color Codes</t>
   </si>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,11 +852,11 @@
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>23</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>35</v>
@@ -908,11 +908,11 @@
       <c r="K11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>35</v>

--- a/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
+++ b/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5563A18-7E99-4F24-826E-B001F1F447BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0233AE-E1E2-4275-91BD-3567FA1C4B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Color Codes</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Pro32xD,Pro16xD,Pro32xBB,Pro215D,Pro815D,Pro885D,Pro16xBB</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (4 of 18)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>23</v>
@@ -900,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>23</v>

--- a/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
+++ b/Test Data/TC_51987_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_The_Slotcard_Positions_Occupied.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0233AE-E1E2-4275-91BD-3567FA1C4B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Color Codes</t>
   </si>
@@ -173,12 +172,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (4 of 18)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +615,7 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -729,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
@@ -943,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE740E-15F1-4A53-8BB2-F229CF1FB15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
